--- a/Standards Progress Tracking - 6th Grade.xlsx
+++ b/Standards Progress Tracking - 6th Grade.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\School\Nathan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenne\GitHub\CA_State_Standards_Progress_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCF1FB8-769F-4073-8322-97BFF693108C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991A0961-0F1D-4AEF-A570-8ECD42C5A4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20910" yWindow="4600" windowWidth="13090" windowHeight="15450" xr2:uid="{DE98C1BA-3560-4C95-AA9A-227D424B16B3}"/>
   </bookViews>
   <sheets>
     <sheet name="ELA" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="11" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
   <si>
     <t>Reading: Literature</t>
   </si>
@@ -44,47 +48,74 @@
     <t>Key Ideas And Details</t>
   </si>
   <si>
-    <t>Cite textual evidence to support analysis of what the text says explicitly as well as inferences drawn from the text.</t>
-  </si>
-  <si>
-    <t>Determine a theme or central idea of a text and how it is conveyed through particular details; provide a summary of the text distinct from personal opinions or judgments.</t>
-  </si>
-  <si>
-    <t>Describe how a particular story’s or drama’s plot unfolds in a series of episodes as well as how the characters respond or change as the plot moves toward a resolution.</t>
-  </si>
-  <si>
     <t>Craft And Structure</t>
   </si>
   <si>
-    <t>Determine the meaning of words and phrases as they are used in a text, including figurative and connotative meanings; analyze the impact of a specific word choice on meaning and tone. (See grade 6 Language standards 4-6 for additional expectations.)</t>
-  </si>
-  <si>
-    <t>Analyze how a particular sentence, chapter, scene, or stanza fits into the overall structure of a text and contributes to the development of the theme, setting, or plot.</t>
-  </si>
-  <si>
-    <t>Explain how an author develops the point of view of the narrator or speaker in a text.</t>
-  </si>
-  <si>
     <t>Integration Of Knowledge And Ideas</t>
   </si>
   <si>
-    <t>Compare and contrast the experience of reading a story, drama, or poem to listening to or viewing an audio, video, or live version of the text, including contrasting what they "see" and "hear" when reading the text to what they perceive when they listen or watch.</t>
-  </si>
-  <si>
-    <t>Compare and contrast texts in different forms or genres (e.g., stories and poems; historical novels and fantasy stories) in terms of their approaches to similar themes and topics.</t>
-  </si>
-  <si>
     <t>Range Of Reading And Level Of Text Complexity</t>
   </si>
   <si>
-    <t>By the end of the year, read and comprehend literature, including stories, dramas, and poems, in the grades 6-8 text complexity band proficiently, with scaffolding as needed at the high end of the range.</t>
+    <t>Reading: Informational Text</t>
+  </si>
+  <si>
+    <t>1 - Cite textual evidence to support analysis of what the text says explicitly as well as inferences drawn from the text.</t>
+  </si>
+  <si>
+    <t>2 - Determine a theme or central idea of a text and how it is conveyed through particular details; provide a summary of the text distinct from personal opinions or judgments.</t>
+  </si>
+  <si>
+    <t>3 - Describe how a particular story’s or drama’s plot unfolds in a series of episodes as well as how the characters respond or change as the plot moves toward a resolution.</t>
+  </si>
+  <si>
+    <t>4 - Determine the meaning of words and phrases as they are used in a text, including figurative and connotative meanings; analyze the impact of a specific word choice on meaning and tone. (See grade 6 Language standards 4-6 for additional expectations.)</t>
+  </si>
+  <si>
+    <t>5 - Analyze how a particular sentence, chapter, scene, or stanza fits into the overall structure of a text and contributes to the development of the theme, setting, or plot.</t>
+  </si>
+  <si>
+    <t>6 - Explain how an author develops the point of view of the narrator or speaker in a text.</t>
+  </si>
+  <si>
+    <t>7 - Compare and contrast the experience of reading a story, drama, or poem to listening to or viewing an audio, video, or live version of the text, including contrasting what they "see" and "hear" when reading the text to what they perceive when they listen or watch.</t>
+  </si>
+  <si>
+    <t>9 - Compare and contrast texts in different forms or genres (e.g., stories and poems; historical novels and fantasy stories) in terms of their approaches to similar themes and topics.</t>
+  </si>
+  <si>
+    <t>10 - By the end of the year, read and comprehend literature, including stories, dramas, and poems, in the grades 6-8 text complexity band proficiently, with scaffolding as needed at the high end of the range.</t>
+  </si>
+  <si>
+    <t>2 - Determine a central idea of a text and how it is conveyed through particular details; provide a summary of the text distinct from personal opinions or judgments.</t>
+  </si>
+  <si>
+    <t>3 - Analyze in detail how a key individual, event, or idea is introduced, illustrated, and elaborated in a text (e.g., through examples or anecdotes).</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Subtopic</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Mastered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,21 +124,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,18 +167,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -137,6 +257,234 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kenner82" refreshedDate="44941.591778009257" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{16D72811-E3B8-49FC-A7E2-0B56C21E3662}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C13" sheet="ELA"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Topic" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Reading: Literature"/>
+        <s v="Reading: Informational Text"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Subtopic" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Key Ideas And Details"/>
+        <s v="Craft And Structure"/>
+        <s v="Integration Of Knowledge And Ideas"/>
+        <s v="Range Of Reading And Level Of Text Complexity"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Standard" numFmtId="0">
+      <sharedItems count="11" longText="1">
+        <s v="1 - Cite textual evidence to support analysis of what the text says explicitly as well as inferences drawn from the text."/>
+        <s v="2 - Determine a theme or central idea of a text and how it is conveyed through particular details; provide a summary of the text distinct from personal opinions or judgments."/>
+        <s v="3 - Describe how a particular story’s or drama’s plot unfolds in a series of episodes as well as how the characters respond or change as the plot moves toward a resolution."/>
+        <s v="4 - Determine the meaning of words and phrases as they are used in a text, including figurative and connotative meanings; analyze the impact of a specific word choice on meaning and tone. (See grade 6 Language standards 4-6 for additional expectations.)"/>
+        <s v="5 - Analyze how a particular sentence, chapter, scene, or stanza fits into the overall structure of a text and contributes to the development of the theme, setting, or plot."/>
+        <s v="6 - Explain how an author develops the point of view of the narrator or speaker in a text."/>
+        <s v="7 - Compare and contrast the experience of reading a story, drama, or poem to listening to or viewing an audio, video, or live version of the text, including contrasting what they &quot;see&quot; and &quot;hear&quot; when reading the text to what they perceive when they listen or watch."/>
+        <s v="9 - Compare and contrast texts in different forms or genres (e.g., stories and poems; historical novels and fantasy stories) in terms of their approaches to similar themes and topics."/>
+        <s v="10 - By the end of the year, read and comprehend literature, including stories, dramas, and poems, in the grades 6-8 text complexity band proficiently, with scaffolding as needed at the high end of the range."/>
+        <s v="2 - Determine a central idea of a text and how it is conveyed through particular details; provide a summary of the text distinct from personal opinions or judgments."/>
+        <s v="3 - Analyze in detail how a key individual, event, or idea is introduced, illustrated, and elaborated in a text (e.g., through examples or anecdotes)."/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F54777B-92D8-46F5-B721-7459CFC8BA7E}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,120 +784,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E318C1DE-AE6F-4E2B-AA16-F0F42DF8EB0C}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="192" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD25D0EA-6D3F-49B7-A92D-05260192C8C0}">
+  <dimension ref="A3:A23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" customWidth="1"/>
-    <col min="2" max="2" width="39.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="230.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Standards Progress Tracking - 6th Grade.xlsx
+++ b/Standards Progress Tracking - 6th Grade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenne\GitHub\CA_State_Standards_Progress_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991A0961-0F1D-4AEF-A570-8ECD42C5A4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C9426C-B4F7-42D1-9084-C2F724AF5ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20910" yWindow="4600" windowWidth="13090" windowHeight="15450" xr2:uid="{DE98C1BA-3560-4C95-AA9A-227D424B16B3}"/>
+    <workbookView xWindow="21250" yWindow="4940" windowWidth="13090" windowHeight="15450" xr2:uid="{DE98C1BA-3560-4C95-AA9A-227D424B16B3}"/>
   </bookViews>
   <sheets>
     <sheet name="ELA" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -186,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -209,23 +209,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -369,7 +357,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F54777B-92D8-46F5-B721-7459CFC8BA7E}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F54777B-92D8-46F5-B721-7459CFC8BA7E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -788,7 +776,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -796,7 +784,7 @@
     <col min="1" max="1" width="26.08984375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.90625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="192" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
@@ -810,7 +798,7 @@
       <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -824,6 +812,9 @@
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -835,6 +826,9 @@
       <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -857,7 +851,7 @@
       <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="b">
+      <c r="D5" s="6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -871,9 +865,6 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -918,7 +909,7 @@
       <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11" t="b">
+      <c r="D10" s="6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -987,10 +978,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
